--- a/biology/Médecine/Anton_von_Frisch/Anton_von_Frisch.xlsx
+++ b/biology/Médecine/Anton_von_Frisch/Anton_von_Frisch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton von Frisch (aussi appelé Anton Ritter von Frisch, né le 16 février 1849 à Vienne, décédé le 24 mai 1917, ibid.) était un urologue autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frisch fait ses études à l'Institut Pasteur de Paris, puis travaille pour Josef Hyrtl, et en tant qu'assistant de Theodor Billroth, professeur d'anatomie à l'académie des beaux-arts de Vienne.
 En 1874, il devient professeur à l'université de Vienne, et en 1889 il prend la tête du département d'urologie de la polyclinique de Vienne.
